--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,31 +633,31 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 47407-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 47407-2020.xlsx", "A 47407-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 47407-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 47407-2020.png", "A 47407-2020")</f>
         <v/>
       </c>
       <c r="U2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 47407-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 47407-2020.png", "A 47407-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 47407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 47407-2020.docx", "A 47407-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 47407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 47407-2020.docx", "A 47407-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 47407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 47407-2020.docx", "A 47407-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 47407-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 47407-2020.docx", "A 47407-2020")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,31 +727,31 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 1076-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 1076-2022.xlsx", "A 1076-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 1076-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 1076-2022.png", "A 1076-2022")</f>
         <v/>
       </c>
       <c r="U3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 1076-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 1076-2022.png", "A 1076-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 1076-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 1076-2022.docx", "A 1076-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 1076-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 1076-2022.docx", "A 1076-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 1076-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 1076-2022.docx", "A 1076-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 1076-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 1076-2022.docx", "A 1076-2022")</f>
         <v/>
       </c>
     </row>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -818,27 +818,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 5212-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 5212-2020.xlsx", "A 5212-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 5212-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 5212-2020.png", "A 5212-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 5212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 5212-2020.docx", "A 5212-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 5212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 5212-2020.docx", "A 5212-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 5212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 5212-2020.docx", "A 5212-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 5212-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 5212-2020.docx", "A 5212-2020")</f>
         <v/>
       </c>
     </row>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -905,31 +905,31 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 1075-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 1075-2022.xlsx", "A 1075-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 1075-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 1075-2022.png", "A 1075-2022")</f>
         <v/>
       </c>
       <c r="U5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 1075-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 1075-2022.png", "A 1075-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 1075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 1075-2022.docx", "A 1075-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 1075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 1075-2022.docx", "A 1075-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 1075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 1075-2022.docx", "A 1075-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 1075-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 1075-2022.docx", "A 1075-2022")</f>
         <v/>
       </c>
     </row>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -996,27 +996,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 22312-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 22312-2022.xlsx", "A 22312-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 22312-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 22312-2022.png", "A 22312-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 22312-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 22312-2022.docx", "A 22312-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 22312-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 22312-2022.docx", "A 22312-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 22312-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 22312-2022.docx", "A 22312-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 22312-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 22312-2022.docx", "A 22312-2022")</f>
         <v/>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1082,27 +1082,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 34220-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 34220-2020.xlsx", "A 34220-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 34220-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 34220-2020.png", "A 34220-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 34220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 34220-2020.docx", "A 34220-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 34220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 34220-2020.docx", "A 34220-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 34220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 34220-2020.docx", "A 34220-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 34220-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 34220-2020.docx", "A 34220-2020")</f>
         <v/>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1168,31 +1168,31 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 61358-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 61358-2022.xlsx", "A 61358-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 61358-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 61358-2022.png", "A 61358-2022")</f>
         <v/>
       </c>
       <c r="U8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 61358-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 61358-2022.png", "A 61358-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 61358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 61358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 61358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 61358-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1262,27 +1262,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 20149-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 20149-2019.xlsx", "A 20149-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 20149-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 20149-2019.png", "A 20149-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 20149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 20149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 20149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 20149-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1347,27 +1347,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 24118-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 24118-2020.xlsx", "A 24118-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 24118-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 24118-2020.png", "A 24118-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 24118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 24118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 24118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 24118-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1432,31 +1432,31 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 34236-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 34236-2020.xlsx", "A 34236-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 34236-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 34236-2020.png", "A 34236-2020")</f>
         <v/>
       </c>
       <c r="U11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 34236-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 34236-2020.png", "A 34236-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 34236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 34236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 34236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 34236-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,27 +1526,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 59837-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 59837-2020.xlsx", "A 59837-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 59837-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 59837-2020.png", "A 59837-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 59837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 59837-2020.docx", "A 59837-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 59837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 59837-2020.docx", "A 59837-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 59837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 59837-2020.docx", "A 59837-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 59837-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 59837-2020.docx", "A 59837-2020")</f>
         <v/>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1611,27 +1611,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 65400-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 65400-2020.xlsx", "A 65400-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 65400-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 65400-2020.png", "A 65400-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 65400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 65400-2020.docx", "A 65400-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 65400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 65400-2020.docx", "A 65400-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 65400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 65400-2020.docx", "A 65400-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 65400-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 65400-2020.docx", "A 65400-2020")</f>
         <v/>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,27 +1701,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 16388-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 16388-2021.xlsx", "A 16388-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 16388-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 16388-2021.png", "A 16388-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 16388-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 16388-2021.docx", "A 16388-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 16388-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 16388-2021.docx", "A 16388-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 16388-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 16388-2021.docx", "A 16388-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 16388-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 16388-2021.docx", "A 16388-2021")</f>
         <v/>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,27 +1786,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 31168-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 31168-2022.xlsx", "A 31168-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 31168-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 31168-2022.png", "A 31168-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 31168-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 31168-2022.docx", "A 31168-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 31168-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 31168-2022.docx", "A 31168-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 31168-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 31168-2022.docx", "A 31168-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 31168-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 31168-2022.docx", "A 31168-2022")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,27 +1871,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 54788-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 54788-2022.xlsx", "A 54788-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 54788-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 54788-2022.png", "A 54788-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 54788-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 54788-2022.docx", "A 54788-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 54788-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 54788-2022.docx", "A 54788-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 54788-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 54788-2022.docx", "A 54788-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 54788-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 54788-2022.docx", "A 54788-2022")</f>
         <v/>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,27 +1956,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 54785-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 54785-2022.xlsx", "A 54785-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 54785-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 54785-2022.png", "A 54785-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 54785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 54785-2022.docx", "A 54785-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 54785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 54785-2022.docx", "A 54785-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 54785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 54785-2022.docx", "A 54785-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 54785-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 54785-2022.docx", "A 54785-2022")</f>
         <v/>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,27 +2041,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 4051-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 4051-2023.xlsx", "A 4051-2023")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 4051-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 4051-2023.png", "A 4051-2023")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 4051-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 4051-2023.docx", "A 4051-2023")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 4051-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 4051-2023.docx", "A 4051-2023")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 4051-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 4051-2023.docx", "A 4051-2023")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 4051-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 4051-2023.docx", "A 4051-2023")</f>
         <v/>
       </c>
     </row>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2126,31 +2126,31 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 11012-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 11012-2023.xlsx", "A 11012-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 11012-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 11012-2023.png", "A 11012-2023")</f>
         <v/>
       </c>
       <c r="U19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 11012-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 11012-2023.png", "A 11012-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 11012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 11012-2023.docx", "A 11012-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 11012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 11012-2023.docx", "A 11012-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 11012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 11012-2023.docx", "A 11012-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 11012-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 11012-2023.docx", "A 11012-2023")</f>
         <v/>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2215,27 +2215,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 11749-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 11749-2023.xlsx", "A 11749-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 11749-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 11749-2023.png", "A 11749-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 11749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 11749-2023.docx", "A 11749-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 11749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 11749-2023.docx", "A 11749-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 11749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 11749-2023.docx", "A 11749-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 11749-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 11749-2023.docx", "A 11749-2023")</f>
         <v/>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y292"/>
+  <dimension ref="A1:Y293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17826,7 +17826,7 @@
       </c>
       <c r="R291" s="2" t="inlineStr"/>
     </row>
-    <row r="292">
+    <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
           <t>A 39518-2023</t>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17882,6 +17882,63 @@
         <v>0</v>
       </c>
       <c r="R292" s="2" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>A 44640-2023</t>
+        </is>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C293" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>VALDEMARSVIK</t>
+        </is>
+      </c>
+      <c r="G293" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
+      <c r="N293" t="n">
+        <v>0</v>
+      </c>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
+      <c r="R293" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44915</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>43570</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>43973</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>44029</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>44151</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1645,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1990,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2164,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2534,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2705,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2762,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3689,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3746,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3865,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3984,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4331,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4445,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5595,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5652,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5709,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5952,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6009,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6123,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6351,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6408,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6465,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6522,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6579,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6636,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6693,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8009,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8066,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8123,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8180,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8237,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8294,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8356,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8413,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8470,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8527,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8584,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8641,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8698,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8755,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8812,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8869,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8926,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8983,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9154,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9325,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9382,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9496,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9553,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9610,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9667,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9724,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9895,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10071,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10128,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10242,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10356,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10527,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10584,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10708,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10770,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11288,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11459,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11516,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11573,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11630,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11687,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11801,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11858,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11920,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11977,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12034,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12091,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12148,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12205,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12262,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12319,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12490,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12547,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12604,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12661,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12718,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12775,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12832,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12889,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12946,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13003,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13060,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13117,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13174,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13459,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13516,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13573,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13630,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13692,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13749,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13806,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13863,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14091,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14148,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14205,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14262,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14319,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14376,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14433,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14490,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14547,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14604,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14661,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14718,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14775,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14832,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14889,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14946,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15003,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15060,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15117,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15231,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15345,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15402,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15459,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15521,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15583,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15645,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15759,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15816,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15873,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15930,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15987,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16044,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16101,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16158,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16220,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16282,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16339,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16396,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16458,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16520,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16582,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16639,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16696,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16753,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16810,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16867,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16924,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16981,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17038,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17095,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17152,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17209,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17266,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17323,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17380,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17437,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17494,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17551,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17608,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17665,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17836,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17893,7 +17893,7 @@
         <v>45189</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y293"/>
+  <dimension ref="A1:Y294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1109,14 +1109,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 61358-2022</t>
+          <t>A 59837-2020</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44915</v>
+        <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1128,17 +1128,22 @@
           <t>VALDEMARSVIK</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G8" t="n">
-        <v>9.300000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -1153,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -1163,393 +1168,389 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Färgginst
+Skogsklocka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 59837-2020.xlsx", "A 59837-2020")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 59837-2020.png", "A 59837-2020")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 59837-2020.docx", "A 59837-2020")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 59837-2020.docx", "A 59837-2020")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 59837-2020.docx", "A 59837-2020")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 59837-2020.docx", "A 59837-2020")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 61358-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44915</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>VALDEMARSVIK</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Knärot
 Grönpyrola</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 61358-2022.xlsx", "A 61358-2022")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 61358-2022.png", "A 61358-2022")</f>
         <v/>
       </c>
-      <c r="U8">
+      <c r="U9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 61358-2022.png", "A 61358-2022")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 61358-2022.docx", "A 61358-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 20149-2019</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>43570</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>VALDEMARSVIK</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="C10" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VALDEMARSVIK</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>Övriga Aktiebolag</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>4</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Vippärt</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 20149-2019.xlsx", "A 20149-2019")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 20149-2019.png", "A 20149-2019")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 20149-2019.docx", "A 20149-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 24118-2020</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>43973</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>VALDEMARSVIK</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>VALDEMARSVIK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>2.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Sårläka</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 24118-2020.xlsx", "A 24118-2020")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 24118-2020.png", "A 24118-2020")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 24118-2020.docx", "A 24118-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 34236-2020</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44029</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>VALDEMARSVIK</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>VALDEMARSVIK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>7.5</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>1</v>
       </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q12" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Knärot</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 34236-2020.xlsx", "A 34236-2020")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 34236-2020.png", "A 34236-2020")</f>
         <v/>
       </c>
-      <c r="U11">
+      <c r="U12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/knärot/A 34236-2020.png", "A 34236-2020")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 34236-2020.docx", "A 34236-2020")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 59837-2020</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44151</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>45192</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ÖSTERGÖTLANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>VALDEMARSVIK</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Färgginst</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/artfynd/A 59837-2020.xlsx", "A 59837-2020")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/kartor/A 59837-2020.png", "A 59837-2020")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomål/A 59837-2020.docx", "A 59837-2020")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/klagomålsmail/A 59837-2020.docx", "A 59837-2020")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsyn/A 59837-2020.docx", "A 59837-2020")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VALDEMARSVIK/tillsynsmail/A 59837-2020.docx", "A 59837-2020")</f>
-        <v/>
-      </c>
-    </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
@@ -1560,7 +1561,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1645,7 +1646,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1736,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1821,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1905,7 +1906,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1990,7 +1991,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2075,7 +2076,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2164,7 +2165,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2249,7 +2250,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2307,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2363,7 +2364,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2420,7 +2421,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2477,7 +2478,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2534,7 +2535,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2591,7 +2592,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2648,7 +2649,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2705,7 +2706,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2762,7 +2763,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2819,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2876,7 +2877,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2933,7 +2934,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2990,7 +2991,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3047,7 +3048,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3104,7 +3105,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3161,7 +3162,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3218,7 +3219,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3275,7 +3276,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3332,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3389,7 +3390,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3446,7 +3447,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3503,7 +3504,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3565,7 +3566,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3627,7 +3628,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3689,7 +3690,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3746,7 +3747,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3803,7 +3804,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3865,7 +3866,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3927,7 +3928,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3984,7 +3985,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4041,7 +4042,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4103,7 +4104,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4160,7 +4161,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4217,7 +4218,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4274,7 +4275,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4331,7 +4332,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4388,7 +4389,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4445,7 +4446,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4502,7 +4503,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4559,7 +4560,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4616,7 +4617,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4678,7 +4679,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4741,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4798,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4855,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4912,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4969,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5026,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5083,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5140,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5197,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5254,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5311,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5368,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5425,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5482,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5538,7 +5539,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5595,7 +5596,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,7 +5653,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5709,7 +5710,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5766,7 +5767,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5829,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5890,7 +5891,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5952,7 +5953,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6009,7 +6010,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6066,7 +6067,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6123,7 +6124,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6180,7 +6181,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6237,7 +6238,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6294,7 +6295,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6351,7 +6352,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6408,7 +6409,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6465,7 +6466,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6522,7 +6523,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6579,7 +6580,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6636,7 +6637,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6693,7 +6694,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6750,7 +6751,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6807,7 +6808,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6864,7 +6865,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6921,7 +6922,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6978,7 +6979,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7035,7 +7036,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7092,7 +7093,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7149,7 +7150,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7206,7 +7207,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7263,7 +7264,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7320,7 +7321,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7382,7 +7383,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7439,7 +7440,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7496,7 +7497,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7553,7 +7554,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7610,7 +7611,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7667,7 +7668,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7724,7 +7725,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7781,7 +7782,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7838,7 +7839,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7895,7 +7896,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7952,7 +7953,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8009,7 +8010,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8066,7 +8067,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8123,7 +8124,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8180,7 +8181,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8237,7 +8238,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8294,7 +8295,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8356,7 +8357,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8413,7 +8414,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8470,7 +8471,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8527,7 +8528,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8584,7 +8585,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8641,7 +8642,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8698,7 +8699,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8755,7 +8756,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8812,7 +8813,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8869,7 +8870,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8926,7 +8927,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8983,7 +8984,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9040,7 +9041,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9097,7 +9098,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9154,7 +9155,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9211,7 +9212,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9268,7 +9269,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9325,7 +9326,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9382,7 +9383,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9439,7 +9440,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9496,7 +9497,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9553,7 +9554,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9610,7 +9611,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9667,7 +9668,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9724,7 +9725,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9781,7 +9782,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9838,7 +9839,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9895,7 +9896,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9957,7 +9958,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10014,7 +10015,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10071,7 +10072,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10128,7 +10129,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10185,7 +10186,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10242,7 +10243,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10299,7 +10300,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10356,7 +10357,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10413,7 +10414,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10470,7 +10471,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10527,7 +10528,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10584,7 +10585,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10646,7 +10647,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10708,7 +10709,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10770,7 +10771,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10832,7 +10833,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10889,7 +10890,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10946,7 +10947,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11003,7 +11004,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11060,7 +11061,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11117,7 +11118,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11174,7 +11175,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11231,7 +11232,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11288,7 +11289,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11345,7 +11346,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11402,7 +11403,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11459,7 +11460,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11516,7 +11517,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11573,7 +11574,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11630,7 +11631,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11687,7 +11688,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11744,7 +11745,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11801,7 +11802,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11858,7 +11859,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11920,7 +11921,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11977,7 +11978,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12034,7 +12035,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12091,7 +12092,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12148,7 +12149,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12205,7 +12206,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12262,7 +12263,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12319,7 +12320,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12376,7 +12377,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12433,7 +12434,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12490,7 +12491,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12547,7 +12548,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12604,7 +12605,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12661,7 +12662,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12718,7 +12719,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12775,7 +12776,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12832,7 +12833,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12889,7 +12890,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12946,7 +12947,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13003,7 +13004,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13060,7 +13061,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13117,7 +13118,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13174,7 +13175,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13231,7 +13232,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13288,7 +13289,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13345,7 +13346,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13402,7 +13403,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13459,7 +13460,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13516,7 +13517,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13573,7 +13574,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13630,7 +13631,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13692,7 +13693,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13749,7 +13750,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13806,7 +13807,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13863,7 +13864,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13920,7 +13921,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13977,7 +13978,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14034,7 +14035,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14091,7 +14092,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14148,7 +14149,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14205,7 +14206,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14262,7 +14263,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14319,7 +14320,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14376,7 +14377,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14433,7 +14434,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14490,7 +14491,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14547,7 +14548,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14604,7 +14605,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14661,7 +14662,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14718,7 +14719,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14775,7 +14776,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14832,7 +14833,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14889,7 +14890,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14946,7 +14947,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15003,7 +15004,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15060,7 +15061,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15117,7 +15118,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15174,7 +15175,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15231,7 +15232,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15288,7 +15289,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15345,7 +15346,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15402,7 +15403,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15459,7 +15460,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15521,7 +15522,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15583,7 +15584,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15645,7 +15646,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15702,7 +15703,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15759,7 +15760,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15816,7 +15817,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15873,7 +15874,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15930,7 +15931,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15987,7 +15988,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16044,7 +16045,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16101,7 +16102,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16158,7 +16159,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16220,7 +16221,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16282,7 +16283,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16339,7 +16340,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16396,7 +16397,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16458,7 +16459,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16520,7 +16521,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16582,7 +16583,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16639,7 +16640,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16696,7 +16697,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16753,7 +16754,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16810,7 +16811,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16867,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16924,7 +16925,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16981,7 +16982,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17038,7 +17039,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17095,7 +17096,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17152,7 +17153,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17209,7 +17210,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17266,7 +17267,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17323,7 +17324,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17380,7 +17381,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17437,7 +17438,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17494,7 +17495,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17551,7 +17552,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17608,7 +17609,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17665,7 +17666,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17722,7 +17723,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17779,7 +17780,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17836,7 +17837,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17883,7 +17884,7 @@
       </c>
       <c r="R292" s="2" t="inlineStr"/>
     </row>
-    <row r="293">
+    <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
           <t>A 44640-2023</t>
@@ -17893,7 +17894,7 @@
         <v>45189</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17939,6 +17940,63 @@
         <v>0</v>
       </c>
       <c r="R293" s="2" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>A 45783-2023</t>
+        </is>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>45195</v>
+      </c>
+      <c r="C294" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>ÖSTERGÖTLANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>VALDEMARSVIK</t>
+        </is>
+      </c>
+      <c r="G294" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
+      <c r="N294" t="n">
+        <v>0</v>
+      </c>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
+      <c r="R294" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43570</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43973</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45189</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45195</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43570</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43973</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45189</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45195</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43570</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43973</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45189</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45195</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>

--- a/Översikt VALDEMARSVIK.xlsx
+++ b/Översikt VALDEMARSVIK.xlsx
@@ -572,7 +572,7 @@
         <v>44097</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>44571</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
         <v>43860</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>44571</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44712</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44029</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>44151</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
         <v>44915</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>43570</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         <v>43973</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1472,7 +1472,7 @@
         <v>44029</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44173</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>44293</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44770</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44883</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>44883</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
         <v>44952</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44991</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>44994</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2250,7 +2250,7 @@
         <v>43334</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
         <v>43341</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2364,7 +2364,7 @@
         <v>43341</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>43343</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>43355</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2535,7 +2535,7 @@
         <v>43398</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43411</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
         <v>43412</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         <v>43416</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>43416</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2820,7 +2820,7 @@
         <v>43424</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
         <v>43432</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>43447</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43454</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3048,7 +3048,7 @@
         <v>43454</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>43461</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3162,7 +3162,7 @@
         <v>43461</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>43461</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>43500</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         <v>43501</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3390,7 +3390,7 @@
         <v>43501</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
         <v>43501</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3504,7 +3504,7 @@
         <v>43507</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3566,7 +3566,7 @@
         <v>43511</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3628,7 +3628,7 @@
         <v>43542</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3690,7 +3690,7 @@
         <v>43554</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
         <v>43563</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         <v>43570</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3866,7 +3866,7 @@
         <v>43570</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43609</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43619</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43636</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43669</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43669</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43678</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43678</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43678</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43681</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43689</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43697</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4741,7 +4741,7 @@
         <v>43718</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4798,7 +4798,7 @@
         <v>43718</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4855,7 +4855,7 @@
         <v>43731</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43766</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>43766</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5026,7 +5026,7 @@
         <v>43774</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5083,7 @@
         <v>43784</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         <v>43791</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
         <v>43814</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5254,7 @@
         <v>43815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43817</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43817</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5425,7 +5425,7 @@
         <v>43818</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43821</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5539,7 +5539,7 @@
         <v>43821</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5596,7 +5596,7 @@
         <v>43845</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5653,7 +5653,7 @@
         <v>43852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>43860</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
         <v>43865</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5829,7 +5829,7 @@
         <v>43865</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>43865</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>43866</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>43868</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>43868</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>43896</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>43900</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>43900</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>43908</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>43908</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43913</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43916</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43928</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43943</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43948</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43949</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43973</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43973</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43983</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43983</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43984</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>44021</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>44029</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44029</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44053</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44064</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44089</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>44089</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>44095</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>44097</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>44097</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>44097</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44106</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44111</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44120</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44123</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44125</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44126</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8124,7 +8124,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8238,7 +8238,7 @@
         <v>44138</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8295,7 +8295,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44172</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44172</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44172</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44174</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44174</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44174</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44174</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44174</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44181</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44181</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44181</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44203</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44244</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44256</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44273</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44287</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44308</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44314</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44315</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44321</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44322</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44326</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44354</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44355</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44357</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44362</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44371</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>44378</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44417</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44417</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>44419</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>44434</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>44454</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>44454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>44463</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10647,7 +10647,7 @@
         <v>44463</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10709,7 +10709,7 @@
         <v>44463</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44463</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10833,7 +10833,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44517</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44518</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>44531</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44536</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>44573</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44573</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44573</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44573</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11403,7 +11403,7 @@
         <v>44573</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11460,7 +11460,7 @@
         <v>44575</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11517,7 +11517,7 @@
         <v>44585</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11574,7 +11574,7 @@
         <v>44585</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11631,7 +11631,7 @@
         <v>44587</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11688,7 +11688,7 @@
         <v>44587</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11745,7 +11745,7 @@
         <v>44593</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11802,7 +11802,7 @@
         <v>44593</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11859,7 +11859,7 @@
         <v>44603</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44613</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44629</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44636</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44650</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12149,7 +12149,7 @@
         <v>44650</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12206,7 +12206,7 @@
         <v>44656</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12263,7 +12263,7 @@
         <v>44658</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         <v>44658</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12377,7 +12377,7 @@
         <v>44687</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12434,7 +12434,7 @@
         <v>44690</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12491,7 +12491,7 @@
         <v>44712</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12548,7 +12548,7 @@
         <v>44722</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12605,7 +12605,7 @@
         <v>44725</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12662,7 +12662,7 @@
         <v>44726</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12719,7 +12719,7 @@
         <v>44728</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12776,7 +12776,7 @@
         <v>44749</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12833,7 +12833,7 @@
         <v>44753</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12890,7 +12890,7 @@
         <v>44753</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12947,7 +12947,7 @@
         <v>44799</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13004,7 +13004,7 @@
         <v>44799</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13061,7 +13061,7 @@
         <v>44805</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13118,7 +13118,7 @@
         <v>44805</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13175,7 +13175,7 @@
         <v>44830</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44833</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13289,7 +13289,7 @@
         <v>44852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13346,7 +13346,7 @@
         <v>44852</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13403,7 +13403,7 @@
         <v>44854</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13460,7 +13460,7 @@
         <v>44854</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13517,7 +13517,7 @@
         <v>44854</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13574,7 +13574,7 @@
         <v>44859</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13631,7 +13631,7 @@
         <v>44882</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13693,7 +13693,7 @@
         <v>44883</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13750,7 +13750,7 @@
         <v>44883</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13807,7 +13807,7 @@
         <v>44883</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13864,7 +13864,7 @@
         <v>44883</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44883</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44889</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44894</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44896</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14149,7 +14149,7 @@
         <v>44897</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14206,7 +14206,7 @@
         <v>44903</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14263,7 +14263,7 @@
         <v>44915</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14320,7 +14320,7 @@
         <v>44916</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14377,7 +14377,7 @@
         <v>44922</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14434,7 +14434,7 @@
         <v>44937</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14491,7 +14491,7 @@
         <v>44942</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>44943</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14605,7 +14605,7 @@
         <v>44945</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14662,7 +14662,7 @@
         <v>44949</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14719,7 +14719,7 @@
         <v>44949</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44952</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44953</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14890,7 +14890,7 @@
         <v>44953</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14947,7 +14947,7 @@
         <v>44957</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>44957</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>44970</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>44970</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44970</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>44972</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
         <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44980</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15403,7 +15403,7 @@
         <v>44985</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15460,7 +15460,7 @@
         <v>44988</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15522,7 +15522,7 @@
         <v>44988</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44988</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15646,7 +15646,7 @@
         <v>44999</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15703,7 +15703,7 @@
         <v>45002</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15760,7 +15760,7 @@
         <v>45002</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15817,7 +15817,7 @@
         <v>45009</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>45020</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15931,7 +15931,7 @@
         <v>45020</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15988,7 +15988,7 @@
         <v>45020</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16045,7 +16045,7 @@
         <v>45020</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16102,7 +16102,7 @@
         <v>45028</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16159,7 +16159,7 @@
         <v>45035</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16221,7 +16221,7 @@
         <v>45035</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16283,7 +16283,7 @@
         <v>45036</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16340,7 +16340,7 @@
         <v>45036</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>45040</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>45041</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>45041</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16583,7 +16583,7 @@
         <v>45043</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16640,7 +16640,7 @@
         <v>45058</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16697,7 +16697,7 @@
         <v>45062</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45062</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>45063</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16868,7 +16868,7 @@
         <v>45063</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>45063</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>45084</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         <v>45093</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>45093</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>45093</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45093</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17267,7 +17267,7 @@
         <v>45093</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17324,7 +17324,7 @@
         <v>45093</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17381,7 +17381,7 @@
         <v>45093</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17438,7 +17438,7 @@
         <v>45093</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17495,7 +17495,7 @@
         <v>45093</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17552,7 +17552,7 @@
         <v>45096</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17609,7 +17609,7 @@
         <v>45121</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17666,7 +17666,7 @@
         <v>45133</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17723,7 +17723,7 @@
         <v>45159</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17780,7 +17780,7 @@
         <v>45167</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
         <v>45167</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17894,7 +17894,7 @@
         <v>45189</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17951,7 +17951,7 @@
         <v>45195</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
